--- a/election_votar_data/LOHAGARA/CHARAMBA/152608/152608_com_1462_male_without_photo_83_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152608/152608_com_1462_male_without_photo_83_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="41.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ: ৩১/০৫/২০০৫</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
@@ -47229,7 +47229,7 @@
       </c>
       <c r="F1114" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর জন্ম তারিখ: ০৪/০৪/১৯৯৪</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G1114" s="3" t="inlineStr">
@@ -51177,7 +51177,7 @@
       </c>
       <c r="F1208" s="3" t="inlineStr">
         <is>
-          <t>সরকারী চাকুরী জন্ম তারিখ:০১/০৭/১৯৫৭</t>
+          <t>সরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1208" s="3" t="inlineStr">
@@ -57351,7 +57351,7 @@
       </c>
       <c r="F1355" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক জন্ম তারিখ: ১৫/০৫/১৯৮৬</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G1355" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHARAMBA/152608/152608_com_1462_male_without_photo_83_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHARAMBA/152608/152608_com_1462_male_without_photo_83_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="41.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ: ৩১/০৫/২০০৫</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
@@ -47229,7 +47229,7 @@
       </c>
       <c r="F1114" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>দিনমজুর জন্ম তারিখ: ০৪/০৪/১৯৯৪</t>
         </is>
       </c>
       <c r="G1114" s="3" t="inlineStr">
@@ -51177,7 +51177,7 @@
       </c>
       <c r="F1208" s="3" t="inlineStr">
         <is>
-          <t>সরকারী চাকুরী</t>
+          <t>সরকারী চাকুরী জন্ম তারিখ:০১/০৭/১৯৫৭</t>
         </is>
       </c>
       <c r="G1208" s="3" t="inlineStr">
@@ -57351,7 +57351,7 @@
       </c>
       <c r="F1355" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক জন্ম তারিখ: ১৫/০৫/১৯৮৬</t>
         </is>
       </c>
       <c r="G1355" s="3" t="inlineStr">
